--- a/Demo_Tabulation/DTV-010 Tab Plan V3.5.xlsx
+++ b/Demo_Tabulation/DTV-010 Tab Plan V3.5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Team1\FWP\Peerless\Feature_Prioritization_DTV-010\RMT-DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/appareddy_medapati_capgemini_com/Documents/Desktop/Demo_Tabulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4DAC95156D7FD4CE4594FC07E1363840580C222D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="1740" windowWidth="28310" windowHeight="16080" tabRatio="767" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stubs" sheetId="5" r:id="rId1"/>
@@ -574,7 +575,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1237,7 +1238,7 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1392,12 +1393,6 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,12 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1469,12 +1458,12 @@
     <cellStyle name="40% - Accent4" xfId="30" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="33" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="36" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="38"/>
-    <cellStyle name="60% - Accent2 2" xfId="39"/>
-    <cellStyle name="60% - Accent3 2" xfId="40"/>
-    <cellStyle name="60% - Accent4 2" xfId="41"/>
-    <cellStyle name="60% - Accent5 2" xfId="42"/>
-    <cellStyle name="60% - Accent6 2" xfId="43"/>
+    <cellStyle name="60% - Accent1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
@@ -1492,10 +1481,10 @@
     <cellStyle name="Heading 4" xfId="7" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="37"/>
+    <cellStyle name="Neutral 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="44" builtinId="5"/>
@@ -1522,9 +1511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1562,9 +1551,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1599,7 +1588,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1634,7 +1623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1807,13 +1796,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15:D16"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2440,10 +2429,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="99" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2509,7 +2498,7 @@
       <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -2530,7 +2519,7 @@
       <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="32" t="s">
         <v>123</v>
       </c>
@@ -2548,7 +2537,7 @@
       <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="35" t="s">
         <v>102</v>
       </c>
@@ -2566,7 +2555,7 @@
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="35" t="s">
         <v>124</v>
       </c>
@@ -2584,7 +2573,7 @@
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="35" t="s">
         <v>125</v>
       </c>
@@ -2603,7 +2592,7 @@
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -2615,7 +2604,7 @@
       <c r="F11" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="63" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2626,7 +2615,7 @@
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="35" t="s">
         <v>97</v>
       </c>
@@ -2636,7 +2625,7 @@
       <c r="F12" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
@@ -2645,7 +2634,7 @@
       <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -2657,7 +2646,7 @@
       <c r="F13" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
@@ -2666,7 +2655,7 @@
       <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="42" t="s">
         <v>99</v>
       </c>
@@ -2676,7 +2665,7 @@
       <c r="F14" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
@@ -2685,7 +2674,7 @@
       <c r="B15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="42" t="s">
         <v>100</v>
       </c>
@@ -2695,7 +2684,7 @@
       <c r="F15" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
@@ -2704,7 +2693,7 @@
       <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="67" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="55" t="s">
@@ -2716,7 +2705,7 @@
       <c r="F16" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -2725,7 +2714,7 @@
       <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="55" t="s">
         <v>162</v>
       </c>
@@ -2735,7 +2724,7 @@
       <c r="F17" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
@@ -2744,7 +2733,7 @@
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -2756,7 +2745,7 @@
       <c r="F18" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="63"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -2766,7 +2755,7 @@
       <c r="B19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="43" t="s">
         <v>110</v>
       </c>
@@ -2776,7 +2765,7 @@
       <c r="F19" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="63"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
@@ -2785,7 +2774,7 @@
       <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="43" t="s">
         <v>111</v>
       </c>
@@ -2795,7 +2784,7 @@
       <c r="F20" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -2804,7 +2793,7 @@
       <c r="B21" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="60" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="57" t="s">
@@ -2816,7 +2805,7 @@
       <c r="F21" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
@@ -2825,7 +2814,7 @@
       <c r="B22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="63"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="57" t="s">
         <v>156</v>
       </c>
@@ -2835,7 +2824,7 @@
       <c r="F22" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
@@ -2844,7 +2833,7 @@
       <c r="B23" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="63"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="57" t="s">
         <v>155</v>
       </c>
@@ -2854,7 +2843,7 @@
       <c r="F23" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
@@ -2863,7 +2852,7 @@
       <c r="B24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="59" t="s">
         <v>153</v>
       </c>
@@ -2873,7 +2862,7 @@
       <c r="F24" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
@@ -3048,7 +3037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3117,7 +3106,7 @@
       <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -3138,7 +3127,7 @@
       <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="32" t="s">
         <v>123</v>
       </c>
@@ -3156,7 +3145,7 @@
       <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="35" t="s">
         <v>102</v>
       </c>
@@ -3174,7 +3163,7 @@
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="35" t="s">
         <v>124</v>
       </c>
@@ -3192,7 +3181,7 @@
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="35" t="s">
         <v>125</v>
       </c>
@@ -3211,7 +3200,7 @@
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -3223,7 +3212,7 @@
       <c r="F11" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3234,7 +3223,7 @@
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="35" t="s">
         <v>97</v>
       </c>
@@ -3244,7 +3233,7 @@
       <c r="F12" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="71"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
@@ -3253,7 +3242,7 @@
       <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -3265,7 +3254,7 @@
       <c r="F13" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
@@ -3274,7 +3263,7 @@
       <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="42" t="s">
         <v>99</v>
       </c>
@@ -3284,7 +3273,7 @@
       <c r="F14" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
@@ -3293,7 +3282,7 @@
       <c r="B15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="42" t="s">
         <v>100</v>
       </c>
@@ -3303,7 +3292,7 @@
       <c r="F15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
@@ -3312,19 +3301,19 @@
       <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="27" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="71"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -3333,17 +3322,17 @@
       <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="27" t="s">
         <v>166</v>
       </c>
       <c r="F17" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
@@ -3352,7 +3341,7 @@
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -3364,7 +3353,7 @@
       <c r="F18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="71"/>
+      <c r="G18" s="69"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3374,7 +3363,7 @@
       <c r="B19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="43" t="s">
         <v>110</v>
       </c>
@@ -3384,7 +3373,7 @@
       <c r="F19" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="71"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
@@ -3393,7 +3382,7 @@
       <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="43" t="s">
         <v>111</v>
       </c>
@@ -3403,7 +3392,7 @@
       <c r="F20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="71"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -3620,7 +3609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,7 +3678,7 @@
       <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -3710,7 +3699,7 @@
       <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="32" t="s">
         <v>123</v>
       </c>
@@ -3728,7 +3717,7 @@
       <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="35" t="s">
         <v>102</v>
       </c>
@@ -3746,7 +3735,7 @@
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="35" t="s">
         <v>124</v>
       </c>
@@ -3764,7 +3753,7 @@
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="35" t="s">
         <v>125</v>
       </c>
@@ -3783,7 +3772,7 @@
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -3795,7 +3784,7 @@
       <c r="F11" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3806,7 +3795,7 @@
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="35" t="s">
         <v>97</v>
       </c>
@@ -3816,7 +3805,7 @@
       <c r="F12" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="71"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
@@ -3825,7 +3814,7 @@
       <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -3837,7 +3826,7 @@
       <c r="F13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
@@ -3846,7 +3835,7 @@
       <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="42" t="s">
         <v>99</v>
       </c>
@@ -3856,7 +3845,7 @@
       <c r="F14" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
@@ -3865,7 +3854,7 @@
       <c r="B15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="42" t="s">
         <v>100</v>
       </c>
@@ -3875,7 +3864,7 @@
       <c r="F15" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
@@ -3884,19 +3873,19 @@
       <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="27" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="71"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -3905,17 +3894,17 @@
       <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="27" t="s">
         <v>166</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
@@ -3924,7 +3913,7 @@
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -3936,7 +3925,7 @@
       <c r="F18" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="71"/>
+      <c r="G18" s="69"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -3946,7 +3935,7 @@
       <c r="B19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="43" t="s">
         <v>110</v>
       </c>
@@ -3956,7 +3945,7 @@
       <c r="F19" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="71"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
@@ -3965,7 +3954,7 @@
       <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="43" t="s">
         <v>111</v>
       </c>
@@ -3975,7 +3964,7 @@
       <c r="F20" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="71"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -4200,7 +4189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4269,7 +4258,7 @@
       <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -4290,7 +4279,7 @@
       <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="32" t="s">
         <v>123</v>
       </c>
@@ -4308,7 +4297,7 @@
       <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="35" t="s">
         <v>102</v>
       </c>
@@ -4326,7 +4315,7 @@
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="35" t="s">
         <v>124</v>
       </c>
@@ -4344,7 +4333,7 @@
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="35" t="s">
         <v>125</v>
       </c>
@@ -4363,7 +4352,7 @@
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -4375,7 +4364,7 @@
       <c r="F11" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="70" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4386,7 +4375,7 @@
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="35" t="s">
         <v>97</v>
       </c>
@@ -4396,7 +4385,7 @@
       <c r="F12" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="71"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
@@ -4405,7 +4394,7 @@
       <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -4417,7 +4406,7 @@
       <c r="F13" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
@@ -4426,7 +4415,7 @@
       <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="42" t="s">
         <v>99</v>
       </c>
@@ -4436,7 +4425,7 @@
       <c r="F14" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
@@ -4445,7 +4434,7 @@
       <c r="B15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="42" t="s">
         <v>100</v>
       </c>
@@ -4455,7 +4444,7 @@
       <c r="F15" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
@@ -4464,19 +4453,19 @@
       <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="27" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="71"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -4485,17 +4474,17 @@
       <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="27" t="s">
         <v>166</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
@@ -4504,7 +4493,7 @@
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -4516,7 +4505,7 @@
       <c r="F18" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="71"/>
+      <c r="G18" s="69"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -4526,7 +4515,7 @@
       <c r="B19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="43" t="s">
         <v>110</v>
       </c>
@@ -4536,7 +4525,7 @@
       <c r="F19" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="71"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
@@ -4545,7 +4534,7 @@
       <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="43" t="s">
         <v>111</v>
       </c>
@@ -4555,7 +4544,7 @@
       <c r="F20" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="71"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -4772,7 +4761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4841,7 +4830,7 @@
       <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -4862,7 +4851,7 @@
       <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="32" t="s">
         <v>123</v>
       </c>
@@ -4880,7 +4869,7 @@
       <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="35" t="s">
         <v>102</v>
       </c>
@@ -4898,7 +4887,7 @@
       <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="35" t="s">
         <v>124</v>
       </c>
@@ -4916,7 +4905,7 @@
       <c r="B10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="35" t="s">
         <v>125</v>
       </c>
@@ -4935,7 +4924,7 @@
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -4947,7 +4936,7 @@
       <c r="F11" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="70" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4958,7 +4947,7 @@
       <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="35" t="s">
         <v>97</v>
       </c>
@@ -4968,7 +4957,7 @@
       <c r="F12" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="71"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21">
@@ -4977,7 +4966,7 @@
       <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>106</v>
       </c>
       <c r="D13" s="35" t="s">
@@ -4989,7 +4978,7 @@
       <c r="F13" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="71"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21">
@@ -4998,7 +4987,7 @@
       <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="42" t="s">
         <v>99</v>
       </c>
@@ -5008,7 +4997,7 @@
       <c r="F14" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26">
@@ -5017,7 +5006,7 @@
       <c r="B15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="42" t="s">
         <v>100</v>
       </c>
@@ -5027,7 +5016,7 @@
       <c r="F15" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="71"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
@@ -5036,19 +5025,19 @@
       <c r="B16" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="27" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="71"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
@@ -5057,17 +5046,17 @@
       <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="60" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="27" t="s">
         <v>166</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G17" s="71"/>
+      <c r="G17" s="69"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
@@ -5076,7 +5065,7 @@
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="60" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="43" t="s">
@@ -5088,7 +5077,7 @@
       <c r="F18" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="71"/>
+      <c r="G18" s="69"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -5098,7 +5087,7 @@
       <c r="B19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="43" t="s">
         <v>110</v>
       </c>
@@ -5108,7 +5097,7 @@
       <c r="F19" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="71"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
@@ -5117,7 +5106,7 @@
       <c r="B20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="64"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="43" t="s">
         <v>111</v>
       </c>
@@ -5127,7 +5116,7 @@
       <c r="F20" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="71"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
@@ -5344,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
@@ -5373,10 +5362,10 @@
       <c r="A5" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
@@ -5432,18 +5421,18 @@
       <c r="A15" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="F15" s="75" t="s">
+      <c r="C15" s="73"/>
+      <c r="F15" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="F16" s="75"/>
+      <c r="F16" s="71"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
@@ -5453,7 +5442,7 @@
       <c r="C17" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="71"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -5465,7 +5454,7 @@
       <c r="C18" s="11">
         <v>0.09</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
@@ -5477,7 +5466,7 @@
       <c r="C19" s="11">
         <v>0.13</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="71"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
@@ -5489,7 +5478,7 @@
       <c r="C20" s="11">
         <v>0.25</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -5504,16 +5493,16 @@
       <c r="A25" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="F25" s="75" t="s">
+      <c r="C25" s="73"/>
+      <c r="F25" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F26" s="75"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
@@ -5523,7 +5512,7 @@
       <c r="C27" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -5536,7 +5525,7 @@
       <c r="C28" s="11">
         <v>0.18</v>
       </c>
-      <c r="F28" s="75"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -5549,7 +5538,7 @@
       <c r="C29" s="11">
         <v>0.17</v>
       </c>
-      <c r="F29" s="75"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -5562,7 +5551,7 @@
       <c r="C30" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F30" s="75"/>
+      <c r="F30" s="71"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
@@ -5576,16 +5565,16 @@
       <c r="A35" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="F35" s="75" t="s">
+      <c r="C35" s="73"/>
+      <c r="F35" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F36" s="75"/>
+      <c r="F36" s="71"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
@@ -5595,7 +5584,7 @@
       <c r="C37" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="71"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
@@ -5607,7 +5596,7 @@
       <c r="C38" s="11">
         <v>0.17</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="71"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
@@ -5619,7 +5608,7 @@
       <c r="C39" s="11">
         <v>0.21</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="71"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
@@ -5631,7 +5620,7 @@
       <c r="C40" s="11">
         <v>0.2</v>
       </c>
-      <c r="F40" s="75"/>
+      <c r="F40" s="71"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
@@ -5645,16 +5634,16 @@
       <c r="A45" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="F45" s="75" t="s">
+      <c r="C45" s="76"/>
+      <c r="F45" s="71" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F46" s="75"/>
+      <c r="F46" s="71"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
@@ -5664,7 +5653,7 @@
       <c r="C47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="75"/>
+      <c r="F47" s="71"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
@@ -5676,7 +5665,7 @@
       <c r="C48" s="11">
         <v>0.13</v>
       </c>
-      <c r="F48" s="75"/>
+      <c r="F48" s="71"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
@@ -5688,7 +5677,7 @@
       <c r="C49" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F49" s="75"/>
+      <c r="F49" s="71"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
@@ -5700,7 +5689,7 @@
       <c r="C50" s="11">
         <v>0.18</v>
       </c>
-      <c r="F50" s="75"/>
+      <c r="F50" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="9">
